--- a/Produktionsförderung/Anlage 8/Ausfuehrlicher Projektplan.xlsx
+++ b/Produktionsförderung/Anlage 8/Ausfuehrlicher Projektplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E02961E-19B8-4C69-8ECE-9980A9F2BD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03613E78-5406-4498-9CB6-532F8BB8EE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="6240" windowWidth="37995" windowHeight="21765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,6 +680,27 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -721,30 +742,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1157,8 +1154,8 @@
   </sheetPr>
   <dimension ref="B1:BO27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26:AQ26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1171,6 +1168,7 @@
     <col min="6" max="6" width="3.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.125" style="4" customWidth="1"/>
     <col min="8" max="27" width="3.25" style="1"/>
+    <col min="44" max="67" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" x14ac:dyDescent="0.8">
@@ -1196,66 +1194,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
       <c r="W2" s="16"/>
-      <c r="X2" s="28" t="s">
+      <c r="X2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
       <c r="AC2" s="17"/>
-      <c r="AD2" s="28" t="s">
+      <c r="AD2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="41"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="48"/>
       <c r="AL2" s="18"/>
-      <c r="AM2" s="28" t="s">
+      <c r="AM2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
     </row>
     <row r="3" spans="2:67" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="36"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="20" t="s">
         <v>31</v>
       </c>
@@ -1342,12 +1340,12 @@
       <c r="BO3" s="21"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1530,19 +1528,19 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="47">
-        <v>1</v>
-      </c>
-      <c r="D5" s="47">
+      <c r="C5" s="33">
+        <v>1</v>
+      </c>
+      <c r="D5" s="33">
         <v>6</v>
       </c>
-      <c r="E5" s="47">
-        <v>1</v>
-      </c>
-      <c r="F5" s="47">
+      <c r="E5" s="33">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33">
         <v>6</v>
       </c>
       <c r="G5" s="4">
@@ -1551,19 +1549,19 @@
       <c r="BD5" s="23"/>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="47">
-        <v>1</v>
-      </c>
-      <c r="D6" s="47">
+      <c r="C6" s="33">
+        <v>1</v>
+      </c>
+      <c r="D6" s="33">
         <v>8</v>
       </c>
-      <c r="E6" s="47">
-        <v>1</v>
-      </c>
-      <c r="F6" s="47">
+      <c r="E6" s="33">
+        <v>1</v>
+      </c>
+      <c r="F6" s="33">
         <v>8</v>
       </c>
       <c r="G6" s="4">
@@ -1572,19 +1570,19 @@
       <c r="BD6" s="23"/>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="33">
         <v>5</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="33">
         <v>4</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="33">
         <v>5</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="33">
         <v>4</v>
       </c>
       <c r="G7" s="4">
@@ -1593,19 +1591,19 @@
       <c r="BD7" s="23"/>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="33">
         <v>7</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="33">
         <v>6</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="33">
         <v>7</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="33">
         <v>6</v>
       </c>
       <c r="G8" s="4">
@@ -1614,19 +1612,19 @@
       <c r="BD8" s="23"/>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="33">
         <v>9</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="33">
         <v>8</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="33">
         <v>9</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="33">
         <v>8</v>
       </c>
       <c r="G9" s="4">
@@ -1635,19 +1633,19 @@
       <c r="BD9" s="23"/>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="33">
         <v>13</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="33">
         <v>4</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="33">
         <v>13</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="33">
         <v>4</v>
       </c>
       <c r="G10" s="4">
@@ -1656,19 +1654,19 @@
       <c r="BD10" s="23"/>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="33">
         <v>13</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="33">
         <v>4</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="33">
         <v>13</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="33">
         <v>4</v>
       </c>
       <c r="G11" s="4">
@@ -1677,19 +1675,19 @@
       <c r="BD11" s="23"/>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12">
         <v>15</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12">
         <v>15</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="33">
         <v>6</v>
       </c>
       <c r="G12" s="4">
@@ -1698,19 +1696,19 @@
       <c r="BD12" s="23"/>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="33">
         <v>17</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="33">
         <v>4</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="33">
         <v>17</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="33">
         <v>4</v>
       </c>
       <c r="G13" s="4">
@@ -1719,19 +1717,19 @@
       <c r="BD13" s="23"/>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="33">
         <v>17</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="33">
         <v>4</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="33">
         <v>17</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="33">
         <v>4</v>
       </c>
       <c r="G14" s="4">
@@ -1740,19 +1738,19 @@
       <c r="BD14" s="23"/>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="33">
         <v>17</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="33">
         <v>8</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="33">
         <v>17</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="33">
         <v>8</v>
       </c>
       <c r="G15" s="4">
@@ -1761,19 +1759,19 @@
       <c r="BD15" s="23"/>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16">
         <v>25</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="33">
         <v>25</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="33">
         <v>2</v>
       </c>
       <c r="G16" s="4">
@@ -1782,19 +1780,19 @@
       <c r="BD16" s="23"/>
     </row>
     <row r="17" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="33">
         <v>25</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="33">
         <v>8</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="33">
         <v>25</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="33">
         <v>8</v>
       </c>
       <c r="G17" s="4">
@@ -1803,19 +1801,19 @@
       <c r="BD17" s="23"/>
     </row>
     <row r="18" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="33">
         <v>25</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="33">
         <v>12</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="33">
         <v>25</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="33">
         <v>12</v>
       </c>
       <c r="G18" s="4">
@@ -1823,20 +1821,20 @@
       </c>
       <c r="BD18" s="23"/>
     </row>
-    <row r="19" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
+    <row r="19" spans="2:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="33">
         <v>25</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="33">
         <v>12</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="33">
         <v>25</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="33">
         <v>12</v>
       </c>
       <c r="G19" s="4">
@@ -1844,7 +1842,7 @@
       </c>
       <c r="BD19" s="23"/>
     </row>
-    <row r="20" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:56" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="7">
         <v>100</v>
       </c>
@@ -1862,7 +1860,7 @@
       </c>
       <c r="BD20" s="23"/>
     </row>
-    <row r="21" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:56" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>100</v>
@@ -1881,7 +1879,7 @@
       </c>
       <c r="BD21" s="23"/>
     </row>
-    <row r="22" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:56" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="7">
         <v>100</v>
@@ -1900,7 +1898,7 @@
       </c>
       <c r="BD22" s="23"/>
     </row>
-    <row r="23" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:56" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7">
         <v>100</v>
       </c>
@@ -1918,7 +1916,7 @@
       </c>
       <c r="BD23" s="23"/>
     </row>
-    <row r="24" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:56" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7">
         <v>100</v>
       </c>
@@ -1936,7 +1934,7 @@
       </c>
       <c r="BD24" s="23"/>
     </row>
-    <row r="25" spans="2:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:56" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="7">
         <v>100</v>
       </c>
@@ -1955,7 +1953,7 @@
       <c r="BD25" s="23"/>
     </row>
     <row r="26" spans="2:56" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="28" t="s">
         <v>35</v>
       </c>
       <c r="J26" s="24"/>
@@ -1968,13 +1966,13 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="25"/>
-      <c r="T26" s="42" t="s">
+      <c r="T26" s="28" t="s">
         <v>39</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="25"/>
-      <c r="X26" s="42" t="s">
+      <c r="X26" s="28" t="s">
         <v>34</v>
       </c>
       <c r="Y26" s="24"/>
@@ -1984,7 +1982,7 @@
       <c r="AC26" s="26"/>
       <c r="AD26" s="26"/>
       <c r="AE26" s="26"/>
-      <c r="AF26" s="42" t="s">
+      <c r="AF26" s="28" t="s">
         <v>40</v>
       </c>
       <c r="AG26" s="26"/>
@@ -1994,22 +1992,22 @@
       <c r="AK26" s="26"/>
       <c r="AL26" s="26"/>
       <c r="AM26" s="26"/>
-      <c r="AN26" s="43"/>
+      <c r="AN26" s="29"/>
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="27"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="44"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="44"/>
-      <c r="BA26" s="44"/>
-      <c r="BB26" s="44"/>
-      <c r="BC26" s="44"/>
+      <c r="AR26" s="30"/>
+      <c r="AS26" s="30"/>
+      <c r="AT26" s="30"/>
+      <c r="AU26" s="30"/>
+      <c r="AV26" s="31"/>
+      <c r="AW26" s="30"/>
+      <c r="AX26" s="30"/>
+      <c r="AY26" s="30"/>
+      <c r="AZ26" s="30"/>
+      <c r="BA26" s="30"/>
+      <c r="BB26" s="30"/>
+      <c r="BC26" s="30"/>
     </row>
     <row r="27" spans="2:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
